--- a/生物ガチャ.xlsx
+++ b/生物ガチャ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>植物細胞や菌類細胞を支える堅い壁です。</t>
   </si>
   <si>
-    <t>酸素</t>
-  </si>
-  <si>
     <t>生化学反応を促進するタンパク質で、触媒として機能します。</t>
   </si>
   <si>
@@ -282,6 +279,13 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酵素</t>
+    <rPh sb="0" eb="2">
+      <t>コウソ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -609,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -621,7 +625,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -778,10 +782,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -792,10 +796,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -806,10 +810,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -820,10 +824,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -834,10 +838,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -848,10 +852,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -862,10 +866,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -876,10 +880,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -890,10 +894,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -904,10 +908,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -918,13 +922,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -932,13 +936,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -946,13 +950,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -960,13 +964,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -974,13 +978,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -988,13 +992,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1002,13 +1006,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1016,13 +1020,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1030,13 +1034,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1044,13 +1048,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
         <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/生物ガチャ.xlsx
+++ b/生物ガチャ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>単語</t>
   </si>
@@ -153,140 +153,76 @@
     <t>細胞が結合して組織や器官を形成するプロセスです。</t>
   </si>
   <si>
+    <t>ゴルジ体と連携してタンパク質合成や修飾を行う膜系の構造です。</t>
+  </si>
+  <si>
+    <t>タンパク質や脂質の貯蔵、輸送を行う細胞小器官です。</t>
+  </si>
+  <si>
+    <t>細胞分裂に関与し、紡錘糸の形成に重要な役割を果たします。</t>
+  </si>
+  <si>
+    <t>液体を貯蔵する細胞小器官で、植物細胞などによく見られます。</t>
+  </si>
+  <si>
+    <t>葉緑体内に含まれる緑色の色素で、光合成反応に関与します。</t>
+  </si>
+  <si>
+    <t>消化酵素を含む小胞で、老廃物の分解や細胞内のリサイクルを担います。</t>
+  </si>
+  <si>
+    <t>細胞が増殖する際に行われるプロセスで、核と細胞質が分割されます。</t>
+  </si>
+  <si>
+    <t>糖を貯蔵する多糖類で、エネルギーの貯蔵や供給に関与します。</t>
+  </si>
+  <si>
+    <t>核を包む二重膜で、核と細胞質を分離します。</t>
+  </si>
+  <si>
     <t>ID</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酵素</t>
+  </si>
+  <si>
+    <t>細胞質骨格</t>
+  </si>
+  <si>
+    <t>細胞内の構造を支えるためのネットワークで、細胞の形状や運動性に関与します。</t>
   </si>
   <si>
     <t>ゴルジ体</t>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タンパク質や脂質を加工、分泌する細胞小器官です。</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>内質網</t>
-    <rPh sb="0" eb="1">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>シツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>小胞体</t>
-    <rPh sb="0" eb="3">
-      <t>ショウホウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>中心体</t>
-    <rPh sb="0" eb="3">
-      <t>チュウシンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>液胞</t>
-    <rPh sb="0" eb="2">
-      <t>エキホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>クロロフィル</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>リソソーム</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>分裂</t>
-    <rPh sb="0" eb="2">
-      <t>ブンレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>細胞質骨格</t>
-    <rPh sb="2" eb="3">
-      <t>シツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>細胞内の構造を支えるためのネットワークで、細胞の形状や運動性に関与します。</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>グリコーゲン</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>核膜</t>
-    <rPh sb="0" eb="2">
-      <t>カクマク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴルジ体と連携してタンパク質合成や修飾を行う膜系の構造です。</t>
-  </si>
-  <si>
-    <t>タンパク質や脂質の貯蔵、輸送を行う細胞小器官です。</t>
-  </si>
-  <si>
-    <t>細胞分裂に関与し、紡錘糸の形成に重要な役割を果たします。</t>
-  </si>
-  <si>
-    <t>液体を貯蔵する細胞小器官で、植物細胞などによく見られます。</t>
-  </si>
-  <si>
-    <t>葉緑体内に含まれる緑色の色素で、光合成反応に関与します。</t>
-  </si>
-  <si>
-    <t>消化酵素を含む小胞で、老廃物の分解や細胞内のリサイクルを担います。</t>
-  </si>
-  <si>
-    <t>細胞が増殖する際に行われるプロセスで、核と細胞質が分割されます。</t>
-  </si>
-  <si>
-    <t>糖を貯蔵する多糖類で、エネルギーの貯蔵や供給に関与します。</t>
-  </si>
-  <si>
-    <t>核を包む二重膜で、核と細胞質を分離します。</t>
-  </si>
-  <si>
-    <t>SR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SSR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>酵素</t>
-    <rPh sb="0" eb="2">
-      <t>コウソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -613,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -625,7 +561,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -782,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -908,10 +844,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -922,13 +858,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -936,13 +872,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -950,13 +886,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -964,13 +900,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -978,13 +914,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -992,13 +928,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1006,13 +942,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1020,13 +956,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1034,13 +970,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1048,13 +984,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/生物ガチャ.xlsx
+++ b/生物ガチャ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="7515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D31"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/生物ガチャ.xlsx
+++ b/生物ガチャ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>単語</t>
   </si>
@@ -223,6 +223,87 @@
   </si>
   <si>
     <t>核膜</t>
+  </si>
+  <si>
+    <t>顕微鏡の下部に装着され、被観察物体を拡大するレンズです。</t>
+  </si>
+  <si>
+    <t>接眼レンズ（Ocular Lens）</t>
+  </si>
+  <si>
+    <t>対物レンズ（Objective Lens）</t>
+  </si>
+  <si>
+    <t>顕微鏡の上部にあるアイピース部分に装着され、観察者の眼で拡大像を見るためのレンズです。</t>
+  </si>
+  <si>
+    <t>倍率（Magnification）</t>
+  </si>
+  <si>
+    <t>視野（Field of View）</t>
+  </si>
+  <si>
+    <t>明視野（Bright Field）</t>
+  </si>
+  <si>
+    <t>位相差顕微鏡（Phase Contrast Microscopy）</t>
+  </si>
+  <si>
+    <t>像面（Image Plane）</t>
+  </si>
+  <si>
+    <t>コントラスト（Contrast）</t>
+  </si>
+  <si>
+    <t>顕微鏡で観察される画像の中で、観察者が目で見ることができる領域の大きさを指します。倍率が高いほど狭くなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透過型顕微鏡の一種で、位相差を利用して透明な生体試料の内部構造を観察するための方法です。染色しなくても細胞の詳細が見えます。</t>
+  </si>
+  <si>
+    <t>ステージ（Stage）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蛍光顕微鏡（Fluorescence Microscopy）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定の蛍光色素を用いて、生体試料中の特定の構造や化学物質を観察するための顕微鏡です。高感度で非常に低濃度の物質も検出できます。</t>
+  </si>
+  <si>
+    <t>対物レンズと接眼レンズの間に形成される実際の像が集まる平面のことです。この平面上で観察者は試料の像を観察します。</t>
+  </si>
+  <si>
+    <t>顕微鏡で観察する際に、物体の輪郭が背景とどれだけ明瞭に区別されるかを示す指標です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試料を置くプラットフォームで、顕微鏡の下部に配置されています。</t>
+  </si>
+  <si>
+    <t>顕微鏡によって被観察物体をどれだけ拡大できるかを示す指標です。</t>
+  </si>
+  <si>
+    <t>一般的な顕微鏡の観察方法で、明るい光源が使用され、物体の輪郭が暗い背景に対して明確に見えるようになっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -547,16 +628,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="122.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -991,6 +1073,196 @@
       </c>
       <c r="D31" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/生物ガチャ.xlsx
+++ b/生物ガチャ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1215,56 +1215,6 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/生物ガチャ.xlsx
+++ b/生物ガチャ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,290 +19,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>レア度</t>
+  </si>
+  <si>
+    <t>細胞を包む薄い膜で、物質の進出や排出を制御します。</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>細胞膜と核の間に位置し、細胞内の多くの化学反応が行われる液体の部分です。</t>
+  </si>
+  <si>
+    <t>細胞の中心に位置し、DNAが収納される制御中心です。</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>デオキシリボ核酸の略で、生物の遺伝情報を保持する分子です。</t>
+  </si>
+  <si>
+    <t>細胞内でのエネルギー生産が行われる器官で、細胞呼吸が行われます。</t>
+  </si>
+  <si>
+    <t>光合成が行われる場所で、光エネルギーを化学エネルギーに変換します。</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>1つの細胞が2つの新しい細胞に分かれるプロセスです。</t>
+  </si>
+  <si>
+    <t>特定の形質をコード化するDNAの一部分です。</t>
+  </si>
+  <si>
+    <t>タンパク質合成の場所であり、細胞内に存在し、タンパク質合成に関与します。</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>植物細胞や菌類細胞を支える堅い壁です。</t>
+  </si>
+  <si>
+    <t>生化学反応を促進するタンパク質で、触媒として機能します。</t>
+  </si>
+  <si>
+    <t>2つ以上の原子が化学的に結合した粒子です。</t>
+  </si>
+  <si>
+    <t>遺伝子型に基づいて現れる個体の外観や特性です。</t>
+  </si>
+  <si>
+    <t>窒素が生物体や環境の間で循環するプロセスです。</t>
+  </si>
+  <si>
+    <t>窒素を無機形態から有機形態に変換するプロセスです。</t>
+  </si>
+  <si>
+    <t>恒温動物とも呼ばれ、外部の温度変化にかかわらず一定の体温を維持する動物です。</t>
+  </si>
+  <si>
+    <t>細胞の成長と分裂を含む周期的なプロセスです。</t>
+  </si>
+  <si>
+    <t>細胞が特定の形態や機能を持つようになる過程です。</t>
+  </si>
+  <si>
+    <t>細胞が結合して組織や器官を形成するプロセスです。</t>
+  </si>
+  <si>
+    <t>ゴルジ体と連携してタンパク質合成や修飾を行う膜系の構造です。</t>
+  </si>
+  <si>
+    <t>タンパク質や脂質の貯蔵、輸送を行う細胞小器官です。</t>
+  </si>
+  <si>
+    <t>細胞分裂に関与し、紡錘糸の形成に重要な役割を果たします。</t>
+  </si>
+  <si>
+    <t>液体を貯蔵する細胞小器官で、植物細胞などによく見られます。</t>
+  </si>
+  <si>
+    <t>葉緑体内に含まれる緑色の色素で、光合成反応に関与します。</t>
+  </si>
+  <si>
+    <t>消化酵素を含む小胞で、老廃物の分解や細胞内のリサイクルを担います。</t>
+  </si>
+  <si>
+    <t>細胞が増殖する際に行われるプロセスで、核と細胞質が分割されます。</t>
+  </si>
+  <si>
+    <t>糖を貯蔵する多糖類で、エネルギーの貯蔵や供給に関与します。</t>
+  </si>
+  <si>
+    <t>核を包む二重膜で、核と細胞質を分離します。</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>細胞内の構造を支えるためのネットワークで、細胞の形状や運動性に関与します。</t>
+  </si>
+  <si>
+    <t>タンパク質や脂質を加工、分泌する細胞小器官です。</t>
+  </si>
+  <si>
+    <t>顕微鏡の下部に装着され、被観察物体を拡大するレンズです。</t>
+  </si>
+  <si>
+    <t>接眼レンズ（Ocular Lens）</t>
+  </si>
+  <si>
+    <t>対物レンズ（Objective Lens）</t>
+  </si>
+  <si>
+    <t>顕微鏡の上部にあるアイピース部分に装着され、観察者の眼で拡大像を見るためのレンズです。</t>
+  </si>
+  <si>
+    <t>倍率（Magnification）</t>
+  </si>
+  <si>
+    <t>視野（Field of View）</t>
+  </si>
+  <si>
+    <t>明視野（Bright Field）</t>
+  </si>
+  <si>
+    <t>位相差顕微鏡（Phase Contrast Microscopy）</t>
+  </si>
+  <si>
+    <t>コントラスト（Contrast）</t>
+  </si>
+  <si>
+    <t>顕微鏡で観察される画像の中で、観察者が目で見ることができる領域の大きさを指します。倍率が高いほど狭くなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透過型顕微鏡の一種で、位相差を利用して透明な生体試料の内部構造を観察するための方法です。染色しなくても細胞の詳細が見えます。</t>
+  </si>
+  <si>
+    <t>ステージ（Stage）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蛍光顕微鏡（Fluorescence Microscopy）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定の蛍光色素を用いて、生体試料中の特定の構造や化学物質を観察するための顕微鏡です。高感度で非常に低濃度の物質も検出できます。</t>
+  </si>
+  <si>
+    <t>対物レンズと接眼レンズの間に形成される実際の像が集まる平面のことです。この平面上で観察者は試料の像を観察します。</t>
+  </si>
+  <si>
+    <t>顕微鏡で観察する際に、物体の輪郭が背景とどれだけ明瞭に区別されるかを示す指標です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試料を置くプラットフォームで、顕微鏡の下部に配置されています。</t>
+  </si>
+  <si>
+    <t>顕微鏡によって被観察物体をどれだけ拡大できるかを示す指標です。</t>
+  </si>
+  <si>
+    <t>一般的な顕微鏡の観察方法で、明るい光源が使用され、物体の輪郭が暗い背景に対して明確に見えるようになっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細胞膜(Cell mambrane)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細胞質(Cytoplasm)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミトコンドリア(Mitochondria)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葉緑体(Chloroplast)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>核(Cell nucleus)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遺伝子(Gene)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酵素(Enzyme)</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>単語</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>レア度</t>
-  </si>
-  <si>
-    <t>細胞膜</t>
-  </si>
-  <si>
-    <t>細胞を包む薄い膜で、物質の進出や排出を制御します。</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>細胞質</t>
-  </si>
-  <si>
-    <t>細胞膜と核の間に位置し、細胞内の多くの化学反応が行われる液体の部分です。</t>
-  </si>
-  <si>
-    <t>核</t>
-  </si>
-  <si>
-    <t>細胞の中心に位置し、DNAが収納される制御中心です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細胞分裂(Cell Division)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リボソーム(Ribosome)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細胞壁 (Cell Wall)</t>
+  </si>
+  <si>
+    <t>分子 (Molecule)</t>
+  </si>
+  <si>
+    <t>表現型 (Phenotype)</t>
+  </si>
+  <si>
+    <t>窒素循環 (Nitrogen Cycle)</t>
+  </si>
+  <si>
+    <t>窒素固定 (Nitrogen Fixation)</t>
+  </si>
+  <si>
+    <t>温血動物 (Warm-blooded Animal / Endotherm)</t>
+  </si>
+  <si>
+    <t>細胞周期 (Cell Cycle)</t>
+  </si>
+  <si>
+    <t>細胞分子 (Cell Molecules)</t>
+  </si>
+  <si>
+    <t>細胞接着 (Cell Adhesion)</t>
+  </si>
+  <si>
+    <t>細胞質骨格 (Cytoskeleton)</t>
+  </si>
+  <si>
+    <t>ゴルジ体 (Golgi Apparatus / Golgi Body)</t>
+  </si>
+  <si>
+    <t>内質網 (Endoplasmic Reticulum)</t>
+  </si>
+  <si>
+    <t>小胞体 (Vesicle)</t>
+  </si>
+  <si>
+    <t>中心体 (Centrosome)</t>
+  </si>
+  <si>
+    <t>液胞 (Vacuole)</t>
+  </si>
+  <si>
+    <t>クロロフィル (Chlorophyll)</t>
+  </si>
+  <si>
+    <t>リソソーム (Lysosome)</t>
+  </si>
+  <si>
+    <t>分裂 (Mitosis / Division)</t>
+  </si>
+  <si>
+    <t>グリコーゲン (Glycogen)</t>
+  </si>
+  <si>
+    <t>核膜 (Nuclear Membrane / Nuclear Envelope)</t>
+  </si>
+  <si>
+    <t>像面（Image Plane）</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SR</t>
-  </si>
-  <si>
-    <t>DNA</t>
-  </si>
-  <si>
-    <t>デオキシリボ核酸の略で、生物の遺伝情報を保持する分子です。</t>
-  </si>
-  <si>
-    <t>ミトコンドリア</t>
-  </si>
-  <si>
-    <t>細胞内でのエネルギー生産が行われる器官で、細胞呼吸が行われます。</t>
-  </si>
-  <si>
-    <t>葉緑体</t>
-  </si>
-  <si>
-    <t>光合成が行われる場所で、光エネルギーを化学エネルギーに変換します。</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>細胞分裂</t>
-  </si>
-  <si>
-    <t>1つの細胞が2つの新しい細胞に分かれるプロセスです。</t>
-  </si>
-  <si>
-    <t>遺伝子</t>
-  </si>
-  <si>
-    <t>特定の形質をコード化するDNAの一部分です。</t>
-  </si>
-  <si>
-    <t>リボソーム</t>
-  </si>
-  <si>
-    <t>タンパク質合成の場所であり、細胞内に存在し、タンパク質合成に関与します。</t>
-  </si>
-  <si>
-    <t>SSR</t>
-  </si>
-  <si>
-    <t>細胞壁</t>
-  </si>
-  <si>
-    <t>植物細胞や菌類細胞を支える堅い壁です。</t>
-  </si>
-  <si>
-    <t>生化学反応を促進するタンパク質で、触媒として機能します。</t>
-  </si>
-  <si>
-    <t>分子</t>
-  </si>
-  <si>
-    <t>2つ以上の原子が化学的に結合した粒子です。</t>
-  </si>
-  <si>
-    <t>表現型</t>
-  </si>
-  <si>
-    <t>遺伝子型に基づいて現れる個体の外観や特性です。</t>
-  </si>
-  <si>
-    <t>窒素循環</t>
-  </si>
-  <si>
-    <t>窒素が生物体や環境の間で循環するプロセスです。</t>
-  </si>
-  <si>
-    <t>窒素固定</t>
-  </si>
-  <si>
-    <t>窒素を無機形態から有機形態に変換するプロセスです。</t>
-  </si>
-  <si>
-    <t>温血動物</t>
-  </si>
-  <si>
-    <t>恒温動物とも呼ばれ、外部の温度変化にかかわらず一定の体温を維持する動物です。</t>
-  </si>
-  <si>
-    <t>細胞周期</t>
-  </si>
-  <si>
-    <t>細胞の成長と分裂を含む周期的なプロセスです。</t>
-  </si>
-  <si>
-    <t>細胞分子</t>
-  </si>
-  <si>
-    <t>細胞が特定の形態や機能を持つようになる過程です。</t>
-  </si>
-  <si>
-    <t>細胞接着</t>
-  </si>
-  <si>
-    <t>細胞が結合して組織や器官を形成するプロセスです。</t>
-  </si>
-  <si>
-    <t>ゴルジ体と連携してタンパク質合成や修飾を行う膜系の構造です。</t>
-  </si>
-  <si>
-    <t>タンパク質や脂質の貯蔵、輸送を行う細胞小器官です。</t>
-  </si>
-  <si>
-    <t>細胞分裂に関与し、紡錘糸の形成に重要な役割を果たします。</t>
-  </si>
-  <si>
-    <t>液体を貯蔵する細胞小器官で、植物細胞などによく見られます。</t>
-  </si>
-  <si>
-    <t>葉緑体内に含まれる緑色の色素で、光合成反応に関与します。</t>
-  </si>
-  <si>
-    <t>消化酵素を含む小胞で、老廃物の分解や細胞内のリサイクルを担います。</t>
-  </si>
-  <si>
-    <t>細胞が増殖する際に行われるプロセスで、核と細胞質が分割されます。</t>
-  </si>
-  <si>
-    <t>糖を貯蔵する多糖類で、エネルギーの貯蔵や供給に関与します。</t>
-  </si>
-  <si>
-    <t>核を包む二重膜で、核と細胞質を分離します。</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>酵素</t>
-  </si>
-  <si>
-    <t>細胞質骨格</t>
-  </si>
-  <si>
-    <t>細胞内の構造を支えるためのネットワークで、細胞の形状や運動性に関与します。</t>
-  </si>
-  <si>
-    <t>ゴルジ体</t>
-  </si>
-  <si>
-    <t>タンパク質や脂質を加工、分泌する細胞小器官です。</t>
-  </si>
-  <si>
-    <t>内質網</t>
-  </si>
-  <si>
-    <t>小胞体</t>
-  </si>
-  <si>
-    <t>中心体</t>
-  </si>
-  <si>
-    <t>液胞</t>
-  </si>
-  <si>
-    <t>クロロフィル</t>
-  </si>
-  <si>
-    <t>リソソーム</t>
-  </si>
-  <si>
-    <t>分裂</t>
-  </si>
-  <si>
-    <t>グリコーゲン</t>
-  </si>
-  <si>
-    <t>核膜</t>
-  </si>
-  <si>
-    <t>顕微鏡の下部に装着され、被観察物体を拡大するレンズです。</t>
-  </si>
-  <si>
-    <t>接眼レンズ（Ocular Lens）</t>
-  </si>
-  <si>
-    <t>対物レンズ（Objective Lens）</t>
-  </si>
-  <si>
-    <t>顕微鏡の上部にあるアイピース部分に装着され、観察者の眼で拡大像を見るためのレンズです。</t>
-  </si>
-  <si>
-    <t>倍率（Magnification）</t>
-  </si>
-  <si>
-    <t>視野（Field of View）</t>
-  </si>
-  <si>
-    <t>明視野（Bright Field）</t>
-  </si>
-  <si>
-    <t>位相差顕微鏡（Phase Contrast Microscopy）</t>
-  </si>
-  <si>
-    <t>像面（Image Plane）</t>
-  </si>
-  <si>
-    <t>コントラスト（Contrast）</t>
-  </si>
-  <si>
-    <t>顕微鏡で観察される画像の中で、観察者が目で見ることができる領域の大きさを指します。倍率が高いほど狭くなります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>透過型顕微鏡の一種で、位相差を利用して透明な生体試料の内部構造を観察するための方法です。染色しなくても細胞の詳細が見えます。</t>
-  </si>
-  <si>
-    <t>ステージ（Stage）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>蛍光顕微鏡（Fluorescence Microscopy）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特定の蛍光色素を用いて、生体試料中の特定の構造や化学物質を観察するための顕微鏡です。高感度で非常に低濃度の物質も検出できます。</t>
-  </si>
-  <si>
-    <t>対物レンズと接眼レンズの間に形成される実際の像が集まる平面のことです。この平面上で観察者は試料の像を観察します。</t>
-  </si>
-  <si>
-    <t>顕微鏡で観察する際に、物体の輪郭が背景とどれだけ明瞭に区別されるかを示す指標です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試料を置くプラットフォームで、顕微鏡の下部に配置されています。</t>
-  </si>
-  <si>
-    <t>顕微鏡によって被観察物体をどれだけ拡大できるかを示す指標です。</t>
-  </si>
-  <si>
-    <t>一般的な顕微鏡の観察方法で、明るい光源が使用され、物体の輪郭が暗い背景に対して明確に見えるようになっています。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SSR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -631,7 +647,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -643,16 +659,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -660,13 +676,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -674,13 +690,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -688,13 +704,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -702,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -716,13 +732,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -730,13 +746,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -744,13 +760,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -758,13 +774,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -772,13 +788,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -786,13 +802,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -800,13 +816,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -814,13 +830,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -828,13 +844,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -842,13 +858,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -856,13 +872,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -870,13 +886,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -884,13 +900,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -898,13 +914,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -912,13 +928,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -926,13 +942,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -940,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -954,13 +970,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -968,13 +984,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -982,13 +998,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -996,13 +1012,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1010,13 +1026,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1024,13 +1040,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1038,13 +1054,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1052,13 +1068,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1066,13 +1082,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1080,13 +1096,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1094,13 +1110,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1108,13 +1124,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1122,13 +1138,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1136,13 +1152,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1150,13 +1166,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1164,13 +1180,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1178,13 +1194,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1192,13 +1208,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1206,13 +1222,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
